--- a/2019/Use Cases/Loan Prediction/Data Dictionary.xlsx
+++ b/2019/Use Cases/Loan Prediction/Data Dictionary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t>ltv</t>
   </si>
@@ -268,18 +268,6 @@
     <t>New loans taken by the customer in last 6 months before the disbursment</t>
   </si>
   <si>
-    <t>Remove</t>
-  </si>
-  <si>
-    <t>Cosider</t>
-  </si>
-  <si>
-    <t>Not Clear</t>
-  </si>
-  <si>
-    <t>Remove, Created a new column based on age</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -289,7 +277,7 @@
     <t>Self-Employed</t>
   </si>
   <si>
-    <t>Consider for further analysis</t>
+    <t>Keep the column and got the high dimension records into range</t>
   </si>
 </sst>
 </file>
@@ -351,10 +339,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,7 +615,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -635,24 +623,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -660,18 +649,15 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -679,73 +665,58 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -753,293 +724,304 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="D30:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1066,7 +1048,7 @@
         <v>0.70499999999999996</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E1">
         <f>2.5807/78.2929</f>
@@ -1085,7 +1067,7 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E2">
         <f>33.432/78.2929</f>
@@ -1104,7 +1086,7 @@
         <v>12.46</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E3">
         <f>42.2802/78.2929</f>
@@ -1116,11 +1098,11 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <f>SUM(A1:A3)</f>
         <v>78.292900000000003</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>SUM(B1:B3)</f>
         <v>21.695</v>
       </c>
